--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43101,6 +43101,41 @@
         <v>197500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1527700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43136,6 +43136,41 @@
         <v>1527700</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>15462800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43171,6 +43171,41 @@
         <v>15462800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2472500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43206,6 +43206,41 @@
         <v>2472500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>474000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43241,6 +43241,41 @@
         <v>474000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>29930300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43276,6 +43276,41 @@
         <v>29930300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2089400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43311,6 +43311,41 @@
         <v>2089400</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>19852700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43346,6 +43346,41 @@
         <v>19852700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1322900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43381,6 +43381,41 @@
         <v>1322900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2820900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43416,6 +43416,41 @@
         <v>2820900</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>8474800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43451,6 +43451,41 @@
         <v>8474800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>2845100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43486,6 +43486,41 @@
         <v>2845100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>2907600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43521,6 +43521,76 @@
         <v>2907600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>4668900</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>20898600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43591,6 +43591,76 @@
         <v>20898600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>29759900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>299700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43661,6 +43661,41 @@
         <v>299700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>2523800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43696,6 +43696,41 @@
         <v>2523800</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>4301200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43731,6 +43731,41 @@
         <v>4301200</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>5373700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43766,6 +43766,41 @@
         <v>5373700</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>11531700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43801,6 +43801,76 @@
         <v>11531700</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1198200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43871,6 +43871,41 @@
         <v>1198200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>11163300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43906,6 +43906,41 @@
         <v>11163300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>8271100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2504"/>
+  <dimension ref="A1:I2505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88146,6 +88146,41 @@
         <v>8271100</v>
       </c>
     </row>
+    <row r="2505">
+      <c r="A2505" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D2505" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E2505" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2505" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2505" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2505" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2505" t="n">
+        <v>10133300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2505"/>
+  <dimension ref="A1:I2506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88181,6 +88181,41 @@
         <v>10133300</v>
       </c>
     </row>
+    <row r="2506">
+      <c r="A2506" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D2506" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E2506" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2506" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2506" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2506" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2506" t="n">
+        <v>4902100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2506"/>
+  <dimension ref="A1:I2507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88216,6 +88216,41 @@
         <v>4902100</v>
       </c>
     </row>
+    <row r="2507">
+      <c r="A2507" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D2507" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E2507" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2507" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2507" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2507" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2507" t="n">
+        <v>2037000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2507"/>
+  <dimension ref="A1:I2508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88251,6 +88251,41 @@
         <v>2037000</v>
       </c>
     </row>
+    <row r="2508">
+      <c r="A2508" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2508" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D2508" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E2508" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2508" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2508" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2508" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2508" t="n">
+        <v>9932000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2508"/>
+  <dimension ref="A1:I2509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88286,6 +88286,41 @@
         <v>9932000</v>
       </c>
     </row>
+    <row r="2509">
+      <c r="A2509" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2509" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D2509" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E2509" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2509" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2509" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2509" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2509" t="n">
+        <v>2131300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2509"/>
+  <dimension ref="A1:I2510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88321,6 +88321,41 @@
         <v>2131300</v>
       </c>
     </row>
+    <row r="2510">
+      <c r="A2510" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D2510" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E2510" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2510" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2510" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2510" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2510" t="n">
+        <v>13461400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2510"/>
+  <dimension ref="A1:I2511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88356,6 +88356,41 @@
         <v>13461400</v>
       </c>
     </row>
+    <row r="2511">
+      <c r="A2511" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2511" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D2511" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E2511" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2511" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2511" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2511" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2511" t="n">
+        <v>1792000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2511"/>
+  <dimension ref="A1:I2512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88391,6 +88391,41 @@
         <v>1792000</v>
       </c>
     </row>
+    <row r="2512">
+      <c r="A2512" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2512" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D2512" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E2512" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2512" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2512" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H2512" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2512" t="n">
+        <v>7867200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2512"/>
+  <dimension ref="A1:I2513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88426,6 +88426,41 @@
         <v>7867200</v>
       </c>
     </row>
+    <row r="2513">
+      <c r="A2513" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D2513" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E2513" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2513" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2513" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2513" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2513" t="n">
+        <v>3523100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2513"/>
+  <dimension ref="A1:I2514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88461,6 +88461,41 @@
         <v>3523100</v>
       </c>
     </row>
+    <row r="2514">
+      <c r="A2514" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E2514" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2514" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2514" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2514" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2514" t="n">
+        <v>2433800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2514"/>
+  <dimension ref="A1:I2515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88496,6 +88496,41 @@
         <v>2433800</v>
       </c>
     </row>
+    <row r="2515">
+      <c r="A2515" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E2515" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2515" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2515" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2515" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2515" t="n">
+        <v>644100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2515"/>
+  <dimension ref="A1:I2516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88531,6 +88531,41 @@
         <v>644100</v>
       </c>
     </row>
+    <row r="2516">
+      <c r="A2516" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2516" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D2516" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E2516" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2516" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2516" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2516" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2516" t="n">
+        <v>344100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2516"/>
+  <dimension ref="A1:I2517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88566,6 +88566,41 @@
         <v>344100</v>
       </c>
     </row>
+    <row r="2517">
+      <c r="A2517" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2517" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D2517" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E2517" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2517" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2517" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2517" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2517" t="n">
+        <v>565900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2517"/>
+  <dimension ref="A1:I2518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88601,6 +88601,41 @@
         <v>565900</v>
       </c>
     </row>
+    <row r="2518">
+      <c r="A2518" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2518" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D2518" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E2518" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2518" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2518" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2518" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2518" t="n">
+        <v>2003300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0072.xlsx
+++ b/data/0072.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2518"/>
+  <dimension ref="A1:I2519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88636,6 +88636,41 @@
         <v>2003300</v>
       </c>
     </row>
+    <row r="2519">
+      <c r="A2519" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2519" t="inlineStr">
+        <is>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="D2519" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="E2519" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2519" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2519" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2519" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2519" t="n">
+        <v>35100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
